--- a/Data/AFDW/tegula_may.xlsx
+++ b/Data/AFDW/tegula_may.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b051fb7dc4dbd1ad/Desktop/tegula_silvetia/Data/AFDW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="358" documentId="8_{A349D842-6C8A-45A6-8E50-38C770BDCA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96BE837B-CC96-4A1C-B24A-706281EA6508}"/>
+  <xr:revisionPtr revIDLastSave="406" documentId="8_{A349D842-6C8A-45A6-8E50-38C770BDCA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B9BF685-5B82-465D-8B2D-747081B035A0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{741D3A54-681F-4C81-825B-BEBB540A03C7}"/>
   </bookViews>
   <sheets>
     <sheet name="tegula_may" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>snail_ID</t>
   </si>
@@ -212,6 +225,12 @@
   </si>
   <si>
     <t>shell_width</t>
+  </si>
+  <si>
+    <t>dry_weight</t>
+  </si>
+  <si>
+    <t>dry_shell</t>
   </si>
 </sst>
 </file>
@@ -1076,21 +1095,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0968407-097C-4660-9142-C9F3CFE35CCD}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="31.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1104,22 +1124,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>42</v>
       </c>
@@ -1132,20 +1158,30 @@
       <c r="D2">
         <v>1.0108999999999999</v>
       </c>
+      <c r="E2">
+        <v>3.8099999999999912E-2</v>
+      </c>
       <c r="F2">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G2">
         <v>0.96809999999999996</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.2473999999999998</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>14.01</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <f>H2-G2</f>
+        <v>1.2792999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>26</v>
       </c>
@@ -1158,20 +1194,30 @@
       <c r="D3">
         <v>1.0026999999999999</v>
       </c>
+      <c r="E3">
+        <v>3.4799999999999942E-2</v>
+      </c>
       <c r="F3">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="G3">
         <v>0.97689999999999999</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.3191999999999999</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>13.99</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <f t="shared" ref="K3:K55" si="0">H3-G3</f>
+        <v>1.3422999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>41</v>
       </c>
@@ -1184,20 +1230,30 @@
       <c r="D4">
         <v>1.0081</v>
       </c>
+      <c r="E4">
+        <v>4.390000000000005E-2</v>
+      </c>
       <c r="F4">
+        <v>0.9</v>
+      </c>
+      <c r="G4">
         <v>0.96970000000000001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2.6112000000000002</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>15.02</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>16.579999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1.6415000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>64</v>
       </c>
@@ -1210,20 +1266,30 @@
       <c r="D5">
         <v>1.0165999999999999</v>
       </c>
+      <c r="E5">
+        <v>4.6099999999999919E-2</v>
+      </c>
       <c r="F5">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="G5">
         <v>0.96479999999999999</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2.3328000000000002</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>14.88</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>16.690000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1.3680000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>60</v>
       </c>
@@ -1236,20 +1302,30 @@
       <c r="D6">
         <v>1.0165999999999999</v>
       </c>
+      <c r="E6">
+        <v>3.7499999999999978E-2</v>
+      </c>
       <c r="F6">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="G6">
         <v>0.95699999999999996</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.2593000000000001</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>14.26</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>15.57</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1.3023000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>51</v>
       </c>
@@ -1262,20 +1338,30 @@
       <c r="D7">
         <v>1.0184</v>
       </c>
+      <c r="E7">
+        <v>3.7799999999999945E-2</v>
+      </c>
       <c r="F7">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="G7">
         <v>0.97670000000000001</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2.1884999999999999</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>13.47</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>15.07</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1.2117999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>52</v>
       </c>
@@ -1288,20 +1374,30 @@
       <c r="D8">
         <v>1.0029999999999999</v>
       </c>
+      <c r="E8">
+        <v>3.5699999999999843E-2</v>
+      </c>
       <c r="F8">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="G8">
         <v>0.97240000000000004</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2.2294</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>14.13</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>15.11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1.2570000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>59</v>
       </c>
@@ -1314,20 +1410,30 @@
       <c r="D9">
         <v>1.0015000000000001</v>
       </c>
+      <c r="E9">
+        <v>3.6500000000000088E-2</v>
+      </c>
       <c r="F9">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="G9">
         <v>0.97650000000000003</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.5909</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>14.14</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>1.6143999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>49</v>
       </c>
@@ -1340,20 +1446,30 @@
       <c r="D10">
         <v>1.0174000000000001</v>
       </c>
+      <c r="E10">
+        <v>4.2100000000000137E-2</v>
+      </c>
       <c r="F10">
+        <v>0.9637</v>
+      </c>
+      <c r="G10">
         <v>0.97089999999999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2.3071000000000002</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>14.27</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>1.3362000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1366,20 +1482,30 @@
       <c r="D11">
         <v>1.0794999999999999</v>
       </c>
+      <c r="E11">
+        <v>0.10849999999999993</v>
+      </c>
       <c r="F11">
+        <v>0.98140000000000005</v>
+      </c>
+      <c r="G11">
         <v>0.97270000000000001</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2.5737000000000001</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>14.89</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>16.940000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>1.601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>69</v>
       </c>
@@ -1393,22 +1519,29 @@
         <v>1.0046999999999999</v>
       </c>
       <c r="E12">
+        <v>4.2899999999999938E-2</v>
+      </c>
+      <c r="F12">
         <v>0.97719999999999996</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.96799999999999997</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2.2475999999999998</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>12.73</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>16.78</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>1.2795999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>23</v>
       </c>
@@ -1422,22 +1555,29 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="E13">
+        <v>3.3100000000000018E-2</v>
+      </c>
+      <c r="F13">
         <v>0.97399999999999998</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.96870000000000001</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2.2397999999999998</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>14.13</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>1.2710999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>37</v>
       </c>
@@ -1451,22 +1591,29 @@
         <v>1.0022</v>
       </c>
       <c r="E14">
+        <v>3.620000000000001E-2</v>
+      </c>
+      <c r="F14">
         <v>0.9778</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.96919999999999995</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2.2565</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>12.95</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>15.33</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>1.2873000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>19</v>
       </c>
@@ -1479,20 +1626,30 @@
       <c r="D15">
         <v>0.99870000000000003</v>
       </c>
+      <c r="E15">
+        <v>3.620000000000001E-2</v>
+      </c>
       <c r="F15">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G15">
         <v>0.96660000000000001</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2.3601999999999999</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>14.4</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>1.3935999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>21</v>
       </c>
@@ -1506,22 +1663,29 @@
         <v>1.0018</v>
       </c>
       <c r="E16">
+        <v>3.1900000000000039E-2</v>
+      </c>
+      <c r="F16">
         <v>0.98160000000000003</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.96789999999999998</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2.1154999999999999</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>13.01</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>14.77</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>1.1476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>25</v>
       </c>
@@ -1535,22 +1699,29 @@
         <v>1.0279</v>
       </c>
       <c r="E17">
+        <v>4.3700000000000072E-2</v>
+      </c>
+      <c r="F17">
         <v>1.0016</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.97140000000000004</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2.4169999999999998</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>14.52</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>16.79</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>1.4455999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>45</v>
       </c>
@@ -1563,20 +1734,30 @@
       <c r="D18">
         <v>0.99339999999999995</v>
       </c>
+      <c r="E18">
+        <v>3.5599999999999965E-2</v>
+      </c>
       <c r="F18">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="G18">
         <v>0.96589999999999998</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2.2665000000000002</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>13.75</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>1.3006000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1586,11 +1767,15 @@
       <c r="C19">
         <v>0.96870000000000001</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.96909999999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>-0.96909999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>54</v>
       </c>
@@ -1603,20 +1788,30 @@
       <c r="D20">
         <v>1.0021</v>
       </c>
+      <c r="E20">
+        <v>4.0599999999999969E-2</v>
+      </c>
       <c r="F20">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="G20">
         <v>0.97099999999999997</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2.4725999999999999</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>15.05</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>16.95</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>1.5015999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>53</v>
       </c>
@@ -1629,20 +1824,30 @@
       <c r="D21">
         <v>0.99990000000000001</v>
       </c>
+      <c r="E21">
+        <v>3.7599999999999967E-2</v>
+      </c>
       <c r="F21">
         <v>0.96540000000000004</v>
       </c>
       <c r="G21">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="H21">
         <v>2.2496999999999998</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>13.72</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>15.22</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>1.2842999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>58</v>
       </c>
@@ -1655,20 +1860,30 @@
       <c r="D22">
         <v>1.0088999999999999</v>
       </c>
+      <c r="E22">
+        <v>3.7099999999999911E-2</v>
+      </c>
       <c r="F22">
+        <v>0.97470000000000001</v>
+      </c>
+      <c r="G22">
         <v>0.97670000000000001</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2.4022999999999999</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>14.4</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>1.4255999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>43</v>
       </c>
@@ -1681,20 +1896,30 @@
       <c r="D23">
         <v>1.0143</v>
       </c>
+      <c r="E23">
+        <v>4.2200000000000015E-2</v>
+      </c>
       <c r="F23">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="G23">
         <v>0.95760000000000001</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>2.6392000000000002</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>14.82</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>17.27</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>1.6816000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1707,20 +1932,30 @@
       <c r="D24">
         <v>0.99950000000000006</v>
       </c>
+      <c r="E24">
+        <v>3.5300000000000109E-2</v>
+      </c>
       <c r="F24">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="G24">
         <v>0.98170000000000002</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2.4224000000000001</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>14.34</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>15.65</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>1.4407000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1733,20 +1968,30 @@
       <c r="D25">
         <v>1.0106999999999999</v>
       </c>
+      <c r="E25">
+        <v>3.3799999999999941E-2</v>
+      </c>
       <c r="F25">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="G25">
         <v>0.97589999999999999</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2.1246999999999998</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>13.57</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>15.33</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>1.1487999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>55</v>
       </c>
@@ -1759,20 +2004,30 @@
       <c r="D26">
         <v>1.0105999999999999</v>
       </c>
+      <c r="E26">
+        <v>4.4599999999999973E-2</v>
+      </c>
       <c r="F26">
+        <v>0.9698</v>
+      </c>
+      <c r="G26">
         <v>0.95699999999999996</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2.2854999999999999</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>14.33</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>16.32</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>1.3285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>29</v>
       </c>
@@ -1785,20 +2040,30 @@
       <c r="D27">
         <v>1.0101</v>
       </c>
+      <c r="E27">
+        <v>4.049999999999998E-2</v>
+      </c>
       <c r="F27">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="G27">
         <v>0.96130000000000004</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2.5064000000000002</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>14.37</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>17.04</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>1.5451000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1809,22 +2074,33 @@
         <v>0.96550000000000002</v>
       </c>
       <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f>D28-C28</f>
+        <v>3.4499999999999975E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.96730000000000005</v>
+      </c>
+      <c r="G28">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="H28">
         <v>2.3984999999999999</v>
       </c>
-      <c r="F28">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
+      <c r="I28">
         <v>13.66</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>15.78</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>1.4364999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>48</v>
       </c>
@@ -1837,20 +2113,30 @@
       <c r="D29">
         <v>1.0078</v>
       </c>
+      <c r="E29">
+        <v>3.6000000000000032E-2</v>
+      </c>
       <c r="F29">
+        <v>0.9627</v>
+      </c>
+      <c r="G29">
         <v>0.96299999999999997</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.1616</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>14</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>16.420000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>1.1985999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1863,20 +2149,30 @@
       <c r="D30">
         <v>1.0067999999999999</v>
       </c>
+      <c r="E30">
+        <v>4.379999999999995E-2</v>
+      </c>
       <c r="F30">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="G30">
         <v>0.98060000000000003</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>2.3210000000000002</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>14.05</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>16.63</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>1.3404000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>65</v>
       </c>
@@ -1889,20 +2185,30 @@
       <c r="D31">
         <v>1.0258</v>
       </c>
+      <c r="E31">
+        <v>4.9000000000000044E-2</v>
+      </c>
       <c r="F31">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="G31">
         <v>0.97489999999999999</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2.5739000000000001</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>14.56</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>16.64</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>1.5990000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>24</v>
       </c>
@@ -1915,20 +2221,30 @@
       <c r="D32">
         <v>1.0321</v>
       </c>
+      <c r="E32">
+        <v>4.6399999999999997E-2</v>
+      </c>
       <c r="F32">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="G32">
         <v>0.97009999999999996</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2.5781000000000001</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>14.54</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>16.18</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>1.6080000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>22</v>
       </c>
@@ -1941,20 +2257,30 @@
       <c r="D33">
         <v>1.0181</v>
       </c>
+      <c r="E33">
+        <v>3.9000000000000035E-2</v>
+      </c>
       <c r="F33">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="G33">
         <v>0.96550000000000002</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>2.4308999999999998</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>13.87</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>16.43</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>1.4653999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>
@@ -1967,20 +2293,30 @@
       <c r="D34">
         <v>1.0022</v>
       </c>
+      <c r="E34">
+        <v>2.9200000000000004E-2</v>
+      </c>
       <c r="F34">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G34">
         <v>0.96940000000000004</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>2.2134</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>13.46</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>14.91</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>1.244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>14</v>
       </c>
@@ -1993,20 +2329,30 @@
       <c r="D35">
         <v>1.0066999999999999</v>
       </c>
+      <c r="E35">
+        <v>3.5599999999999965E-2</v>
+      </c>
       <c r="F35">
+        <v>0.9738</v>
+      </c>
+      <c r="G35">
         <v>0.97889999999999999</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>2.3517999999999999</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>14.13</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>15.82</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>1.3729</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>11</v>
       </c>
@@ -2020,22 +2366,29 @@
         <v>1.0091000000000001</v>
       </c>
       <c r="E36">
+        <v>3.8600000000000079E-2</v>
+      </c>
+      <c r="F36">
         <v>0.98409999999999997</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.96089999999999998</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>2.3856999999999999</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>14.65</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>16.350000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>1.4247999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>28</v>
       </c>
@@ -2049,22 +2402,29 @@
         <v>1.0015000000000001</v>
       </c>
       <c r="E37">
+        <v>3.4400000000000097E-2</v>
+      </c>
+      <c r="F37">
         <v>0.97789999999999999</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.9667</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>2.1876000000000002</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>13.41</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>15.15</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>1.2209000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>56</v>
       </c>
@@ -2078,22 +2438,29 @@
         <v>0.99860000000000004</v>
       </c>
       <c r="E38">
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="F38">
         <v>0.9768</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.96389999999999998</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>2.2145999999999999</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>13.51</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>15.18</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>1.2506999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>68</v>
       </c>
@@ -2107,22 +2474,29 @@
         <v>1.002</v>
       </c>
       <c r="E39">
+        <v>3.8000000000000034E-2</v>
+      </c>
+      <c r="F39">
         <v>0.97989999999999999</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.9657</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>2.5426000000000002</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>14.56</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>16.82</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>1.5769000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>40</v>
       </c>
@@ -2136,22 +2510,29 @@
         <v>1.0046999999999999</v>
       </c>
       <c r="E40">
+        <v>3.8899999999999935E-2</v>
+      </c>
+      <c r="F40">
         <v>0.9819</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.97689999999999999</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>2.4767000000000001</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>12.8</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>1.4998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>17</v>
       </c>
@@ -2165,22 +2546,29 @@
         <v>1.0102</v>
       </c>
       <c r="E41">
+        <v>3.1299999999999994E-2</v>
+      </c>
+      <c r="F41">
         <v>0.98929999999999996</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.97209999999999996</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>2.1446000000000001</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>13.42</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>14.92</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>1.1725000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>50</v>
       </c>
@@ -2194,22 +2582,29 @@
         <v>0.99819999999999998</v>
       </c>
       <c r="E42">
+        <v>3.3000000000000029E-2</v>
+      </c>
+      <c r="F42">
         <v>0.97919999999999996</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.97170000000000001</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>2.3938999999999999</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>14.76</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>16.27</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>1.4221999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>63</v>
       </c>
@@ -2223,22 +2618,29 @@
         <v>0.998</v>
       </c>
       <c r="E43">
+        <v>3.4699999999999953E-2</v>
+      </c>
+      <c r="F43">
         <v>0.97529999999999994</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0.96299999999999997</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>2.5708000000000002</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>14.1</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>16.78</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>1.6078000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>35</v>
       </c>
@@ -2252,22 +2654,29 @@
         <v>0.99619999999999997</v>
       </c>
       <c r="E44">
+        <v>3.1100000000000017E-2</v>
+      </c>
+      <c r="F44">
         <v>0.97770000000000001</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.96970000000000001</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>2.3780999999999999</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>13.73</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>15.75</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>1.4083999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>13</v>
       </c>
@@ -2281,22 +2690,29 @@
         <v>1.0029999999999999</v>
       </c>
       <c r="E45">
+        <v>3.9199999999999902E-2</v>
+      </c>
+      <c r="F45">
         <v>0.97829999999999995</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.96579999999999999</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>2.4163000000000001</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>14.61</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>16.63</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>1.4505000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>66</v>
       </c>
@@ -2310,22 +2726,29 @@
         <v>1.0073000000000001</v>
       </c>
       <c r="E46">
+        <v>3.6900000000000044E-2</v>
+      </c>
+      <c r="F46">
         <v>0.98460000000000003</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>0.97670000000000001</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>2.2126999999999999</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>13.86</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>15.18</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>1.2359999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>34</v>
       </c>
@@ -2339,22 +2762,29 @@
         <v>1.0176000000000001</v>
       </c>
       <c r="E47">
+        <v>3.3100000000000018E-2</v>
+      </c>
+      <c r="F47">
         <v>0.99619999999999997</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>0.96040000000000003</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>2.37</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>14.19</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>15.79</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>1.4096000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>44</v>
       </c>
@@ -2368,22 +2798,29 @@
         <v>1.0133000000000001</v>
       </c>
       <c r="E48">
+        <v>5.1000000000000045E-2</v>
+      </c>
+      <c r="F48">
         <v>0.98060000000000003</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0.97729999999999995</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>2.6724000000000001</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>14.65</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>17.329999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>1.6951000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>15</v>
       </c>
@@ -2397,22 +2834,29 @@
         <v>1.0051000000000001</v>
       </c>
       <c r="E49">
+        <v>3.3700000000000063E-2</v>
+      </c>
+      <c r="F49">
         <v>0.98119999999999996</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.96640000000000004</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>2.2494000000000001</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>13.14</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>15.08</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>1.2829999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>38</v>
       </c>
@@ -2426,22 +2870,29 @@
         <v>1.0142</v>
       </c>
       <c r="E50">
+        <v>3.8900000000000046E-2</v>
+      </c>
+      <c r="F50">
         <v>0.9889</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.97219999999999995</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>2.3753000000000002</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>14.1</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>16.489999999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>1.4031000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>36</v>
       </c>
@@ -2455,22 +2906,29 @@
         <v>1.0025999999999999</v>
       </c>
       <c r="E51">
+        <v>3.4799999999999942E-2</v>
+      </c>
+      <c r="F51">
         <v>0.97519999999999996</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.96160000000000001</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>2.3106</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>13.88</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>15.74</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>1.349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>31</v>
       </c>
@@ -2484,30 +2942,41 @@
         <v>0.996</v>
       </c>
       <c r="E52">
+        <v>3.2599999999999962E-2</v>
+      </c>
+      <c r="F52">
         <v>0.97499999999999998</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0.97</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>2.3182</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>13.89</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>15.54</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>1.3482000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>16</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>67</v>
       </c>
@@ -2521,28 +2990,35 @@
         <v>1.0124</v>
       </c>
       <c r="E54">
+        <v>4.2399999999999993E-2</v>
+      </c>
+      <c r="F54">
         <v>0.98740000000000006</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>0.9657</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>2.8746999999999998</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>14.46</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>16.97</v>
       </c>
       <c r="K54">
+        <f t="shared" si="0"/>
+        <v>1.9089999999999998</v>
+      </c>
+      <c r="L54">
         <v>10</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>57</v>
       </c>
@@ -2556,19 +3032,26 @@
         <v>1.0226</v>
       </c>
       <c r="E55">
+        <v>5.1599999999999979E-2</v>
+      </c>
+      <c r="F55">
         <v>0.98899999999999999</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>0.97719999999999996</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>2.4618000000000002</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>14.45</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>16.899999999999999</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>1.4846000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Data/AFDW/tegula_may.xlsx
+++ b/Data/AFDW/tegula_may.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b051fb7dc4dbd1ad/Desktop/tegula_silvetia/Data/AFDW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="406" documentId="8_{A349D842-6C8A-45A6-8E50-38C770BDCA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B9BF685-5B82-465D-8B2D-747081B035A0}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="8_{A349D842-6C8A-45A6-8E50-38C770BDCA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BB39DC8-8906-423D-8A0F-E7423ACDE734}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{741D3A54-681F-4C81-825B-BEBB540A03C7}"/>
   </bookViews>
@@ -772,10 +772,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1097,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0968407-097C-4660-9142-C9F3CFE35CCD}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1159,7 +1155,8 @@
         <v>1.0108999999999999</v>
       </c>
       <c r="E2">
-        <v>3.8099999999999912E-2</v>
+        <f>D2-F2</f>
+        <v>3.4899999999999931E-2</v>
       </c>
       <c r="F2">
         <v>0.97599999999999998</v>
@@ -1195,10 +1192,11 @@
         <v>1.0026999999999999</v>
       </c>
       <c r="E3">
+        <f t="shared" ref="E3:E18" si="0">D3-F3</f>
         <v>3.4799999999999942E-2</v>
       </c>
       <c r="F3">
-        <v>0.91020000000000001</v>
+        <v>0.96789999999999998</v>
       </c>
       <c r="G3">
         <v>0.97689999999999999</v>
@@ -1213,7 +1211,7 @@
         <v>15.7</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K55" si="0">H3-G3</f>
+        <f t="shared" ref="K3:K55" si="1">H3-G3</f>
         <v>1.3422999999999998</v>
       </c>
     </row>
@@ -1231,10 +1229,11 @@
         <v>1.0081</v>
       </c>
       <c r="E4">
+        <f t="shared" si="0"/>
         <v>4.390000000000005E-2</v>
       </c>
       <c r="F4">
-        <v>0.9</v>
+        <v>0.96419999999999995</v>
       </c>
       <c r="G4">
         <v>0.96970000000000001</v>
@@ -1249,7 +1248,7 @@
         <v>16.579999999999998</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6415000000000002</v>
       </c>
     </row>
@@ -1267,7 +1266,8 @@
         <v>1.0165999999999999</v>
       </c>
       <c r="E5">
-        <v>4.6099999999999919E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.4399999999999995E-2</v>
       </c>
       <c r="F5">
         <v>0.97219999999999995</v>
@@ -1285,7 +1285,7 @@
         <v>16.690000000000001</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3680000000000003</v>
       </c>
     </row>
@@ -1303,7 +1303,8 @@
         <v>1.0165999999999999</v>
       </c>
       <c r="E6">
-        <v>3.7499999999999978E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.389999999999993E-2</v>
       </c>
       <c r="F6">
         <v>0.98270000000000002</v>
@@ -1321,7 +1322,7 @@
         <v>15.57</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3023000000000002</v>
       </c>
     </row>
@@ -1339,7 +1340,8 @@
         <v>1.0184</v>
       </c>
       <c r="E7">
-        <v>3.7799999999999945E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.3699999999999952E-2</v>
       </c>
       <c r="F7">
         <v>0.98470000000000002</v>
@@ -1357,7 +1359,7 @@
         <v>15.07</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2117999999999998</v>
       </c>
     </row>
@@ -1375,7 +1377,8 @@
         <v>1.0029999999999999</v>
       </c>
       <c r="E8">
-        <v>3.5699999999999843E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.159999999999985E-2</v>
       </c>
       <c r="F8">
         <v>0.97140000000000004</v>
@@ -1393,7 +1396,7 @@
         <v>15.11</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2570000000000001</v>
       </c>
     </row>
@@ -1411,7 +1414,8 @@
         <v>1.0015000000000001</v>
       </c>
       <c r="E9">
-        <v>3.6500000000000088E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.9600000000000071E-2</v>
       </c>
       <c r="F9">
         <v>0.97189999999999999</v>
@@ -1429,7 +1433,7 @@
         <v>17.2</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6143999999999998</v>
       </c>
     </row>
@@ -1447,7 +1451,8 @@
         <v>1.0174000000000001</v>
       </c>
       <c r="E10">
-        <v>4.2100000000000137E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.3700000000000081E-2</v>
       </c>
       <c r="F10">
         <v>0.9637</v>
@@ -1465,7 +1470,7 @@
         <v>15.6</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3362000000000003</v>
       </c>
     </row>
@@ -1483,7 +1488,8 @@
         <v>1.0794999999999999</v>
       </c>
       <c r="E11">
-        <v>0.10849999999999993</v>
+        <f t="shared" si="0"/>
+        <v>9.8099999999999854E-2</v>
       </c>
       <c r="F11">
         <v>0.98140000000000005</v>
@@ -1501,7 +1507,7 @@
         <v>16.940000000000001</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.601</v>
       </c>
     </row>
@@ -1519,7 +1525,8 @@
         <v>1.0046999999999999</v>
       </c>
       <c r="E12">
-        <v>4.2899999999999938E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.7499999999999969E-2</v>
       </c>
       <c r="F12">
         <v>0.97719999999999996</v>
@@ -1537,7 +1544,7 @@
         <v>16.78</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2795999999999998</v>
       </c>
     </row>
@@ -1555,7 +1562,8 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="E13">
-        <v>3.3100000000000018E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="F13">
         <v>0.97399999999999998</v>
@@ -1573,7 +1581,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2710999999999997</v>
       </c>
     </row>
@@ -1591,7 +1599,8 @@
         <v>1.0022</v>
       </c>
       <c r="E14">
-        <v>3.620000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4399999999999977E-2</v>
       </c>
       <c r="F14">
         <v>0.9778</v>
@@ -1609,7 +1618,7 @@
         <v>15.33</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2873000000000001</v>
       </c>
     </row>
@@ -1627,10 +1636,11 @@
         <v>0.99870000000000003</v>
       </c>
       <c r="E15">
+        <f t="shared" si="0"/>
         <v>3.620000000000001E-2</v>
       </c>
       <c r="F15">
-        <v>0.92400000000000004</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="G15">
         <v>0.96660000000000001</v>
@@ -1645,7 +1655,7 @@
         <v>16.8</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3935999999999997</v>
       </c>
     </row>
@@ -1663,7 +1673,8 @@
         <v>1.0018</v>
       </c>
       <c r="E16">
-        <v>3.1900000000000039E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.0199999999999996E-2</v>
       </c>
       <c r="F16">
         <v>0.98160000000000003</v>
@@ -1681,7 +1692,7 @@
         <v>14.77</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1476</v>
       </c>
     </row>
@@ -1699,7 +1710,8 @@
         <v>1.0279</v>
       </c>
       <c r="E17">
-        <v>4.3700000000000072E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.629999999999999E-2</v>
       </c>
       <c r="F17">
         <v>1.0016</v>
@@ -1717,7 +1729,7 @@
         <v>16.79</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4455999999999998</v>
       </c>
     </row>
@@ -1735,7 +1747,8 @@
         <v>0.99339999999999995</v>
       </c>
       <c r="E18">
-        <v>3.5599999999999965E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.2299999999999995E-2</v>
       </c>
       <c r="F18">
         <v>0.96109999999999995</v>
@@ -1753,7 +1766,7 @@
         <v>15.1</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3006000000000002</v>
       </c>
     </row>
@@ -1771,7 +1784,7 @@
         <v>0.96909999999999996</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.96909999999999996</v>
       </c>
     </row>
@@ -1807,7 +1820,7 @@
         <v>16.95</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5015999999999998</v>
       </c>
     </row>
@@ -1843,7 +1856,7 @@
         <v>15.22</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2842999999999998</v>
       </c>
     </row>
@@ -1879,7 +1892,7 @@
         <v>15.7</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4255999999999998</v>
       </c>
     </row>
@@ -1915,7 +1928,7 @@
         <v>17.27</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6816000000000002</v>
       </c>
     </row>
@@ -1951,7 +1964,7 @@
         <v>15.65</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4407000000000001</v>
       </c>
     </row>
@@ -1987,7 +2000,7 @@
         <v>15.33</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1487999999999998</v>
       </c>
     </row>
@@ -2023,7 +2036,7 @@
         <v>16.32</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3285</v>
       </c>
     </row>
@@ -2059,7 +2072,7 @@
         <v>17.04</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5451000000000001</v>
       </c>
     </row>
@@ -2096,7 +2109,7 @@
         <v>15.78</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4364999999999999</v>
       </c>
     </row>
@@ -2132,7 +2145,7 @@
         <v>16.420000000000002</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1985999999999999</v>
       </c>
     </row>
@@ -2168,7 +2181,7 @@
         <v>16.63</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3404000000000003</v>
       </c>
     </row>
@@ -2204,7 +2217,7 @@
         <v>16.64</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5990000000000002</v>
       </c>
     </row>
@@ -2240,7 +2253,7 @@
         <v>16.18</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6080000000000001</v>
       </c>
     </row>
@@ -2276,7 +2289,7 @@
         <v>16.43</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4653999999999998</v>
       </c>
     </row>
@@ -2312,7 +2325,7 @@
         <v>14.91</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.244</v>
       </c>
     </row>
@@ -2348,7 +2361,7 @@
         <v>15.82</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3729</v>
       </c>
     </row>
@@ -2384,7 +2397,7 @@
         <v>16.350000000000001</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4247999999999998</v>
       </c>
     </row>
@@ -2420,7 +2433,7 @@
         <v>15.15</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2209000000000003</v>
       </c>
     </row>
@@ -2456,7 +2469,7 @@
         <v>15.18</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2506999999999999</v>
       </c>
     </row>
@@ -2492,7 +2505,7 @@
         <v>16.82</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5769000000000002</v>
       </c>
     </row>
@@ -2528,7 +2541,7 @@
         <v>15.4</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4998</v>
       </c>
     </row>
@@ -2564,7 +2577,7 @@
         <v>14.92</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1725000000000001</v>
       </c>
     </row>
@@ -2600,7 +2613,7 @@
         <v>16.27</v>
       </c>
       <c r="K42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4221999999999999</v>
       </c>
     </row>
@@ -2636,7 +2649,7 @@
         <v>16.78</v>
       </c>
       <c r="K43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6078000000000001</v>
       </c>
     </row>
@@ -2672,7 +2685,7 @@
         <v>15.75</v>
       </c>
       <c r="K44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4083999999999999</v>
       </c>
     </row>
@@ -2708,7 +2721,7 @@
         <v>16.63</v>
       </c>
       <c r="K45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4505000000000001</v>
       </c>
     </row>
@@ -2744,7 +2757,7 @@
         <v>15.18</v>
       </c>
       <c r="K46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2359999999999998</v>
       </c>
     </row>
@@ -2780,7 +2793,7 @@
         <v>15.79</v>
       </c>
       <c r="K47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4096000000000002</v>
       </c>
     </row>
@@ -2816,7 +2829,7 @@
         <v>17.329999999999998</v>
       </c>
       <c r="K48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6951000000000001</v>
       </c>
     </row>
@@ -2852,7 +2865,7 @@
         <v>15.08</v>
       </c>
       <c r="K49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2829999999999999</v>
       </c>
     </row>
@@ -2888,7 +2901,7 @@
         <v>16.489999999999998</v>
       </c>
       <c r="K50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4031000000000002</v>
       </c>
     </row>
@@ -2924,7 +2937,7 @@
         <v>15.74</v>
       </c>
       <c r="K51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.349</v>
       </c>
     </row>
@@ -2960,7 +2973,7 @@
         <v>15.54</v>
       </c>
       <c r="K52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3482000000000001</v>
       </c>
     </row>
@@ -2972,7 +2985,7 @@
         <v>56</v>
       </c>
       <c r="K53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3008,7 +3021,7 @@
         <v>16.97</v>
       </c>
       <c r="K54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9089999999999998</v>
       </c>
       <c r="L54">
@@ -3050,7 +3063,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="K55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4846000000000004</v>
       </c>
     </row>

--- a/Data/AFDW/tegula_may.xlsx
+++ b/Data/AFDW/tegula_may.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b051fb7dc4dbd1ad/Desktop/tegula_silvetia/Data/AFDW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="423" documentId="8_{A349D842-6C8A-45A6-8E50-38C770BDCA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BB39DC8-8906-423D-8A0F-E7423ACDE734}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="8_{A349D842-6C8A-45A6-8E50-38C770BDCA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49EA9BC0-0BDC-4FEC-86CD-8DC1E01BEAB9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{741D3A54-681F-4C81-825B-BEBB540A03C7}"/>
   </bookViews>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1488,7 +1488,7 @@
         <v>1.0794999999999999</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>D11-F11</f>
         <v>9.8099999999999854E-2</v>
       </c>
       <c r="F11">
